--- a/medicine/Enfance/Marie_Takvam/Marie_Takvam.xlsx
+++ b/medicine/Enfance/Marie_Takvam/Marie_Takvam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie Takvam (née le 6 décembre 1926 à Skylstad, un quartier de la commune d'Ørsta, dans le comté de Møre og Romsdal, en Norvège et morte le 28 janvier 2008[1] à Lier, dans le Buskerud) est une romancière, poète, dramaturge, écrivain pour enfant et actrice norvégienne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie Takvam (née le 6 décembre 1926 à Skylstad, un quartier de la commune d'Ørsta, dans le comté de Møre og Romsdal, en Norvège et morte le 28 janvier 2008 à Lier, dans le Buskerud) est une romancière, poète, dramaturge, écrivain pour enfant et actrice norvégienne.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les débuts en littérature de Marie Takvam se font sous la forme de poésie lyrique avec Dåp under sju stjerner (1952)[2]. Falle og reise seg att est publié en 1980. En 1983, elle reçoit le prix Dobloug de l'académie suédoise (Doblougska priset)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les débuts en littérature de Marie Takvam se font sous la forme de poésie lyrique avec Dåp under sju stjerner (1952). Falle og reise seg att est publié en 1980. En 1983, elle reçoit le prix Dobloug de l'académie suédoise (Doblougska priset).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dåp under sju stjerner, 1952
 Syngjande kjelder, 1954
@@ -584,7 +600,9 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1977 : Åpenbaringen
 1977 : Det tause flertall
